--- a/historicoquiniela3meses.xlsx
+++ b/historicoquiniela3meses.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B84645-4409-4648-B6C1-0E68A95C46E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B39734F-1DDF-4885-BE16-AD835B69FFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="14400" windowHeight="7335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -395,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EI10"/>
+  <dimension ref="A1:EK10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="DK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="EI2" sqref="EI2:EI7"/>
+      <selection activeCell="EK2" sqref="EK2:EK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
     </row>
-    <row r="2" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -916,8 +916,14 @@
       <c r="EI2">
         <v>0</v>
       </c>
+      <c r="EJ2">
+        <v>10</v>
+      </c>
+      <c r="EK2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -1335,8 +1341,14 @@
       <c r="EI3">
         <v>4</v>
       </c>
+      <c r="EJ3">
+        <v>15</v>
+      </c>
+      <c r="EK3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -1754,8 +1766,14 @@
       <c r="EI4">
         <v>6</v>
       </c>
+      <c r="EJ4">
+        <v>16</v>
+      </c>
+      <c r="EK4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -2173,8 +2191,14 @@
       <c r="EI5">
         <v>17</v>
       </c>
+      <c r="EJ5">
+        <v>20</v>
+      </c>
+      <c r="EK5">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>14</v>
       </c>
@@ -2592,8 +2616,14 @@
       <c r="EI6">
         <v>28</v>
       </c>
+      <c r="EJ6">
+        <v>23</v>
+      </c>
+      <c r="EK6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -3011,11 +3041,17 @@
       <c r="EI7">
         <v>34</v>
       </c>
+      <c r="EJ7">
+        <v>25</v>
+      </c>
+      <c r="EK7">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:141" x14ac:dyDescent="0.25">
       <c r="AG8" s="3"/>
     </row>
-    <row r="10" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:141" x14ac:dyDescent="0.25">
       <c r="CI10" s="5"/>
     </row>
   </sheetData>

--- a/historicoquiniela3meses.xlsx
+++ b/historicoquiniela3meses.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B39734F-1DDF-4885-BE16-AD835B69FFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64604430-2633-4C04-B991-9CC6E850DB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EK10"/>
+  <dimension ref="A1:FY10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="EK2" sqref="EK2:EK7"/>
+    <sheetView tabSelected="1" topLeftCell="EQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="FY2" sqref="FY2:FY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
     </row>
-    <row r="2" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -922,8 +922,128 @@
       <c r="EK2">
         <v>4</v>
       </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>11</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>0</v>
+      </c>
+      <c r="EQ2">
+        <v>1</v>
+      </c>
+      <c r="ER2">
+        <v>0</v>
+      </c>
+      <c r="ES2">
+        <v>8</v>
+      </c>
+      <c r="ET2">
+        <v>0</v>
+      </c>
+      <c r="EU2">
+        <v>0</v>
+      </c>
+      <c r="EV2">
+        <v>0</v>
+      </c>
+      <c r="EW2">
+        <v>6</v>
+      </c>
+      <c r="EX2">
+        <v>4</v>
+      </c>
+      <c r="EY2">
+        <v>0</v>
+      </c>
+      <c r="EZ2">
+        <v>0</v>
+      </c>
+      <c r="FA2">
+        <v>4</v>
+      </c>
+      <c r="FB2">
+        <v>5</v>
+      </c>
+      <c r="FC2">
+        <v>0</v>
+      </c>
+      <c r="FD2">
+        <v>2</v>
+      </c>
+      <c r="FE2">
+        <v>4</v>
+      </c>
+      <c r="FF2">
+        <v>14</v>
+      </c>
+      <c r="FG2">
+        <v>13</v>
+      </c>
+      <c r="FH2">
+        <v>3</v>
+      </c>
+      <c r="FI2">
+        <v>0</v>
+      </c>
+      <c r="FJ2">
+        <v>23</v>
+      </c>
+      <c r="FK2">
+        <v>5</v>
+      </c>
+      <c r="FL2">
+        <v>23</v>
+      </c>
+      <c r="FM2">
+        <v>0</v>
+      </c>
+      <c r="FN2">
+        <v>0</v>
+      </c>
+      <c r="FO2">
+        <v>9</v>
+      </c>
+      <c r="FP2">
+        <v>10</v>
+      </c>
+      <c r="FQ2">
+        <v>4</v>
+      </c>
+      <c r="FR2">
+        <v>0</v>
+      </c>
+      <c r="FS2">
+        <v>2</v>
+      </c>
+      <c r="FT2">
+        <v>1</v>
+      </c>
+      <c r="FU2">
+        <v>2</v>
+      </c>
+      <c r="FV2">
+        <v>1</v>
+      </c>
+      <c r="FW2">
+        <v>1</v>
+      </c>
+      <c r="FX2">
+        <v>2</v>
+      </c>
+      <c r="FY2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -1347,8 +1467,128 @@
       <c r="EK3">
         <v>10</v>
       </c>
+      <c r="EL3">
+        <v>14</v>
+      </c>
+      <c r="EM3">
+        <v>12</v>
+      </c>
+      <c r="EN3">
+        <v>1</v>
+      </c>
+      <c r="EO3">
+        <v>10</v>
+      </c>
+      <c r="EP3">
+        <v>10</v>
+      </c>
+      <c r="EQ3">
+        <v>2</v>
+      </c>
+      <c r="ER3">
+        <v>8</v>
+      </c>
+      <c r="ES3">
+        <v>11</v>
+      </c>
+      <c r="ET3">
+        <v>8</v>
+      </c>
+      <c r="EU3">
+        <v>10</v>
+      </c>
+      <c r="EV3">
+        <v>10</v>
+      </c>
+      <c r="EW3">
+        <v>7</v>
+      </c>
+      <c r="EX3">
+        <v>12</v>
+      </c>
+      <c r="EY3">
+        <v>7</v>
+      </c>
+      <c r="EZ3">
+        <v>7</v>
+      </c>
+      <c r="FA3">
+        <v>12</v>
+      </c>
+      <c r="FB3">
+        <v>15</v>
+      </c>
+      <c r="FC3">
+        <v>3</v>
+      </c>
+      <c r="FD3">
+        <v>6</v>
+      </c>
+      <c r="FE3">
+        <v>6</v>
+      </c>
+      <c r="FF3">
+        <v>18</v>
+      </c>
+      <c r="FG3">
+        <v>17</v>
+      </c>
+      <c r="FH3">
+        <v>5</v>
+      </c>
+      <c r="FI3">
+        <v>2</v>
+      </c>
+      <c r="FJ3">
+        <v>24</v>
+      </c>
+      <c r="FK3">
+        <v>6</v>
+      </c>
+      <c r="FL3">
+        <v>24</v>
+      </c>
+      <c r="FM3">
+        <v>5</v>
+      </c>
+      <c r="FN3">
+        <v>0</v>
+      </c>
+      <c r="FO3">
+        <v>15</v>
+      </c>
+      <c r="FP3">
+        <v>13</v>
+      </c>
+      <c r="FQ3">
+        <v>8</v>
+      </c>
+      <c r="FR3">
+        <v>20</v>
+      </c>
+      <c r="FS3">
+        <v>9</v>
+      </c>
+      <c r="FT3">
+        <v>4</v>
+      </c>
+      <c r="FU3">
+        <v>11</v>
+      </c>
+      <c r="FV3">
+        <v>3</v>
+      </c>
+      <c r="FW3">
+        <v>6</v>
+      </c>
+      <c r="FX3">
+        <v>11</v>
+      </c>
+      <c r="FY3">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -1772,8 +2012,128 @@
       <c r="EK4">
         <v>12</v>
       </c>
+      <c r="EL4">
+        <v>19</v>
+      </c>
+      <c r="EM4">
+        <v>21</v>
+      </c>
+      <c r="EN4">
+        <v>2</v>
+      </c>
+      <c r="EO4">
+        <v>14</v>
+      </c>
+      <c r="EP4">
+        <v>20</v>
+      </c>
+      <c r="EQ4">
+        <v>3</v>
+      </c>
+      <c r="ER4">
+        <v>10</v>
+      </c>
+      <c r="ES4">
+        <v>16</v>
+      </c>
+      <c r="ET4">
+        <v>9</v>
+      </c>
+      <c r="EU4">
+        <v>22</v>
+      </c>
+      <c r="EV4">
+        <v>22</v>
+      </c>
+      <c r="EW4">
+        <v>12</v>
+      </c>
+      <c r="EX4">
+        <v>17</v>
+      </c>
+      <c r="EY4">
+        <v>23</v>
+      </c>
+      <c r="EZ4">
+        <v>8</v>
+      </c>
+      <c r="FA4">
+        <v>17</v>
+      </c>
+      <c r="FB4">
+        <v>20</v>
+      </c>
+      <c r="FC4">
+        <v>12</v>
+      </c>
+      <c r="FD4">
+        <v>7</v>
+      </c>
+      <c r="FE4">
+        <v>7</v>
+      </c>
+      <c r="FF4">
+        <v>22</v>
+      </c>
+      <c r="FG4">
+        <v>22</v>
+      </c>
+      <c r="FH4">
+        <v>15</v>
+      </c>
+      <c r="FI4">
+        <v>13</v>
+      </c>
+      <c r="FJ4">
+        <v>25</v>
+      </c>
+      <c r="FK4">
+        <v>13</v>
+      </c>
+      <c r="FL4">
+        <v>27</v>
+      </c>
+      <c r="FM4">
+        <v>13</v>
+      </c>
+      <c r="FN4">
+        <v>9</v>
+      </c>
+      <c r="FO4">
+        <v>20</v>
+      </c>
+      <c r="FP4">
+        <v>23</v>
+      </c>
+      <c r="FQ4">
+        <v>16</v>
+      </c>
+      <c r="FR4">
+        <v>21</v>
+      </c>
+      <c r="FS4">
+        <v>14</v>
+      </c>
+      <c r="FT4">
+        <v>5</v>
+      </c>
+      <c r="FU4">
+        <v>14</v>
+      </c>
+      <c r="FV4">
+        <v>7</v>
+      </c>
+      <c r="FW4">
+        <v>11</v>
+      </c>
+      <c r="FX4">
+        <v>13</v>
+      </c>
+      <c r="FY4">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -2197,8 +2557,128 @@
       <c r="EK5">
         <v>17</v>
       </c>
+      <c r="EL5">
+        <v>25</v>
+      </c>
+      <c r="EM5">
+        <v>22</v>
+      </c>
+      <c r="EN5">
+        <v>15</v>
+      </c>
+      <c r="EO5">
+        <v>21</v>
+      </c>
+      <c r="EP5">
+        <v>21</v>
+      </c>
+      <c r="EQ5">
+        <v>27</v>
+      </c>
+      <c r="ER5">
+        <v>29</v>
+      </c>
+      <c r="ES5">
+        <v>19</v>
+      </c>
+      <c r="ET5">
+        <v>10</v>
+      </c>
+      <c r="EU5">
+        <v>23</v>
+      </c>
+      <c r="EV5">
+        <v>23</v>
+      </c>
+      <c r="EW5">
+        <v>16</v>
+      </c>
+      <c r="EX5">
+        <v>26</v>
+      </c>
+      <c r="EY5">
+        <v>25</v>
+      </c>
+      <c r="EZ5">
+        <v>19</v>
+      </c>
+      <c r="FA5">
+        <v>21</v>
+      </c>
+      <c r="FB5">
+        <v>28</v>
+      </c>
+      <c r="FC5">
+        <v>24</v>
+      </c>
+      <c r="FD5">
+        <v>18</v>
+      </c>
+      <c r="FE5">
+        <v>11</v>
+      </c>
+      <c r="FF5">
+        <v>26</v>
+      </c>
+      <c r="FG5">
+        <v>24</v>
+      </c>
+      <c r="FH5">
+        <v>17</v>
+      </c>
+      <c r="FI5">
+        <v>18</v>
+      </c>
+      <c r="FJ5">
+        <v>31</v>
+      </c>
+      <c r="FK5">
+        <v>18</v>
+      </c>
+      <c r="FL5">
+        <v>31</v>
+      </c>
+      <c r="FM5">
+        <v>17</v>
+      </c>
+      <c r="FN5">
+        <v>10</v>
+      </c>
+      <c r="FO5">
+        <v>28</v>
+      </c>
+      <c r="FP5">
+        <v>24</v>
+      </c>
+      <c r="FQ5">
+        <v>22</v>
+      </c>
+      <c r="FR5">
+        <v>23</v>
+      </c>
+      <c r="FS5">
+        <v>15</v>
+      </c>
+      <c r="FT5">
+        <v>6</v>
+      </c>
+      <c r="FU5">
+        <v>21</v>
+      </c>
+      <c r="FV5">
+        <v>16</v>
+      </c>
+      <c r="FW5">
+        <v>22</v>
+      </c>
+      <c r="FX5">
+        <v>20</v>
+      </c>
+      <c r="FY5">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>14</v>
       </c>
@@ -2622,8 +3102,128 @@
       <c r="EK6">
         <v>20</v>
       </c>
+      <c r="EL6">
+        <v>26</v>
+      </c>
+      <c r="EM6">
+        <v>25</v>
+      </c>
+      <c r="EN6">
+        <v>16</v>
+      </c>
+      <c r="EO6">
+        <v>22</v>
+      </c>
+      <c r="EP6">
+        <v>29</v>
+      </c>
+      <c r="EQ6">
+        <v>33</v>
+      </c>
+      <c r="ER6">
+        <v>32</v>
+      </c>
+      <c r="ES6">
+        <v>28</v>
+      </c>
+      <c r="ET6">
+        <v>31</v>
+      </c>
+      <c r="EU6">
+        <v>31</v>
+      </c>
+      <c r="EV6">
+        <v>31</v>
+      </c>
+      <c r="EW6">
+        <v>17</v>
+      </c>
+      <c r="EX6">
+        <v>31</v>
+      </c>
+      <c r="EY6">
+        <v>26</v>
+      </c>
+      <c r="EZ6">
+        <v>25</v>
+      </c>
+      <c r="FA6">
+        <v>26</v>
+      </c>
+      <c r="FB6">
+        <v>29</v>
+      </c>
+      <c r="FC6">
+        <v>26</v>
+      </c>
+      <c r="FD6">
+        <v>23</v>
+      </c>
+      <c r="FE6">
+        <v>17</v>
+      </c>
+      <c r="FF6">
+        <v>30</v>
+      </c>
+      <c r="FG6">
+        <v>28</v>
+      </c>
+      <c r="FH6">
+        <v>22</v>
+      </c>
+      <c r="FI6">
+        <v>22</v>
+      </c>
+      <c r="FJ6">
+        <v>32</v>
+      </c>
+      <c r="FK6">
+        <v>25</v>
+      </c>
+      <c r="FL6">
+        <v>32</v>
+      </c>
+      <c r="FM6">
+        <v>24</v>
+      </c>
+      <c r="FN6">
+        <v>20</v>
+      </c>
+      <c r="FO6">
+        <v>29</v>
+      </c>
+      <c r="FP6">
+        <v>26</v>
+      </c>
+      <c r="FQ6">
+        <v>22</v>
+      </c>
+      <c r="FR6">
+        <v>24</v>
+      </c>
+      <c r="FS6">
+        <v>19</v>
+      </c>
+      <c r="FT6">
+        <v>7</v>
+      </c>
+      <c r="FU6">
+        <v>27</v>
+      </c>
+      <c r="FV6">
+        <v>28</v>
+      </c>
+      <c r="FW6">
+        <v>29</v>
+      </c>
+      <c r="FX6">
+        <v>25</v>
+      </c>
+      <c r="FY6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -3047,11 +3647,131 @@
       <c r="EK7">
         <v>36</v>
       </c>
+      <c r="EL7">
+        <v>32</v>
+      </c>
+      <c r="EM7">
+        <v>31</v>
+      </c>
+      <c r="EN7">
+        <v>30</v>
+      </c>
+      <c r="EO7">
+        <v>33</v>
+      </c>
+      <c r="EP7">
+        <v>30</v>
+      </c>
+      <c r="EQ7">
+        <v>35</v>
+      </c>
+      <c r="ER7">
+        <v>33</v>
+      </c>
+      <c r="ES7">
+        <v>31</v>
+      </c>
+      <c r="ET7">
+        <v>34</v>
+      </c>
+      <c r="EU7">
+        <v>35</v>
+      </c>
+      <c r="EV7">
+        <v>35</v>
+      </c>
+      <c r="EW7">
+        <v>21</v>
+      </c>
+      <c r="EX7">
+        <v>35</v>
+      </c>
+      <c r="EY7">
+        <v>34</v>
+      </c>
+      <c r="EZ7">
+        <v>34</v>
+      </c>
+      <c r="FA7">
+        <v>35</v>
+      </c>
+      <c r="FB7">
+        <v>35</v>
+      </c>
+      <c r="FC7">
+        <v>36</v>
+      </c>
+      <c r="FD7">
+        <v>34</v>
+      </c>
+      <c r="FE7">
+        <v>34</v>
+      </c>
+      <c r="FF7">
+        <v>34</v>
+      </c>
+      <c r="FG7">
+        <v>32</v>
+      </c>
+      <c r="FH7">
+        <v>33</v>
+      </c>
+      <c r="FI7">
+        <v>29</v>
+      </c>
+      <c r="FJ7">
+        <v>33</v>
+      </c>
+      <c r="FK7">
+        <v>32</v>
+      </c>
+      <c r="FL7">
+        <v>35</v>
+      </c>
+      <c r="FM7">
+        <v>28</v>
+      </c>
+      <c r="FN7">
+        <v>29</v>
+      </c>
+      <c r="FO7">
+        <v>33</v>
+      </c>
+      <c r="FP7">
+        <v>35</v>
+      </c>
+      <c r="FQ7">
+        <v>36</v>
+      </c>
+      <c r="FR7">
+        <v>31</v>
+      </c>
+      <c r="FS7">
+        <v>32</v>
+      </c>
+      <c r="FT7">
+        <v>8</v>
+      </c>
+      <c r="FU7">
+        <v>32</v>
+      </c>
+      <c r="FV7">
+        <v>29</v>
+      </c>
+      <c r="FW7">
+        <v>35</v>
+      </c>
+      <c r="FX7">
+        <v>33</v>
+      </c>
+      <c r="FY7">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:181" x14ac:dyDescent="0.25">
       <c r="AG8" s="3"/>
     </row>
-    <row r="10" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:181" x14ac:dyDescent="0.25">
       <c r="CI10" s="5"/>
     </row>
   </sheetData>

--- a/historicoquiniela3meses.xlsx
+++ b/historicoquiniela3meses.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64604430-2633-4C04-B991-9CC6E850DB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E223067-013D-4A24-9A9F-8FB4A2FDFF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FY10"/>
+  <dimension ref="A1:GC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="FY2" sqref="FY2:FY7"/>
+    <sheetView tabSelected="1" topLeftCell="ET1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="GC2" sqref="GC2:GC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
     </row>
-    <row r="2" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -1042,8 +1042,20 @@
       <c r="FY2">
         <v>5</v>
       </c>
+      <c r="FZ2">
+        <v>3</v>
+      </c>
+      <c r="GA2">
+        <v>1</v>
+      </c>
+      <c r="GB2">
+        <v>0</v>
+      </c>
+      <c r="GC2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -1587,8 +1599,20 @@
       <c r="FY3">
         <v>13</v>
       </c>
+      <c r="FZ3">
+        <v>13</v>
+      </c>
+      <c r="GA3">
+        <v>7</v>
+      </c>
+      <c r="GB3">
+        <v>5</v>
+      </c>
+      <c r="GC3">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -2132,8 +2156,20 @@
       <c r="FY4">
         <v>31</v>
       </c>
+      <c r="FZ4">
+        <v>15</v>
+      </c>
+      <c r="GA4">
+        <v>11</v>
+      </c>
+      <c r="GB4">
+        <v>6</v>
+      </c>
+      <c r="GC4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -2677,8 +2713,20 @@
       <c r="FY5">
         <v>32</v>
       </c>
+      <c r="FZ5">
+        <v>19</v>
+      </c>
+      <c r="GA5">
+        <v>20</v>
+      </c>
+      <c r="GB5">
+        <v>12</v>
+      </c>
+      <c r="GC5">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>14</v>
       </c>
@@ -3222,8 +3270,20 @@
       <c r="FY6">
         <v>15</v>
       </c>
+      <c r="FZ6">
+        <v>32</v>
+      </c>
+      <c r="GA6">
+        <v>22</v>
+      </c>
+      <c r="GB6">
+        <v>20</v>
+      </c>
+      <c r="GC6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -3767,11 +3827,23 @@
       <c r="FY7">
         <v>36</v>
       </c>
+      <c r="FZ7">
+        <v>36</v>
+      </c>
+      <c r="GA7">
+        <v>31</v>
+      </c>
+      <c r="GB7">
+        <v>30</v>
+      </c>
+      <c r="GC7">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:185" x14ac:dyDescent="0.25">
       <c r="AG8" s="3"/>
     </row>
-    <row r="10" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:185" x14ac:dyDescent="0.25">
       <c r="CI10" s="5"/>
     </row>
   </sheetData>

--- a/historicoquiniela3meses.xlsx
+++ b/historicoquiniela3meses.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E223067-013D-4A24-9A9F-8FB4A2FDFF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE6816B-FFEA-4BA8-93EB-2E261DE4E0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GC10"/>
+  <dimension ref="A1:GV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ET1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="GC2" sqref="GC2:GC7"/>
+    <sheetView tabSelected="1" topLeftCell="FN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="GT2" sqref="GT2:GV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
     </row>
-    <row r="2" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -1054,8 +1054,65 @@
       <c r="GC2">
         <v>8</v>
       </c>
+      <c r="GD2">
+        <v>4</v>
+      </c>
+      <c r="GE2">
+        <v>0</v>
+      </c>
+      <c r="GF2">
+        <v>0</v>
+      </c>
+      <c r="GG2">
+        <v>0</v>
+      </c>
+      <c r="GH2">
+        <v>12</v>
+      </c>
+      <c r="GI2">
+        <v>1</v>
+      </c>
+      <c r="GJ2">
+        <v>6</v>
+      </c>
+      <c r="GK2">
+        <v>0</v>
+      </c>
+      <c r="GL2">
+        <v>1</v>
+      </c>
+      <c r="GM2">
+        <v>0</v>
+      </c>
+      <c r="GN2">
+        <v>20</v>
+      </c>
+      <c r="GO2">
+        <v>20</v>
+      </c>
+      <c r="GP2">
+        <v>3</v>
+      </c>
+      <c r="GQ2">
+        <v>14</v>
+      </c>
+      <c r="GR2">
+        <v>0</v>
+      </c>
+      <c r="GS2">
+        <v>0</v>
+      </c>
+      <c r="GT2">
+        <v>7</v>
+      </c>
+      <c r="GU2">
+        <v>0</v>
+      </c>
+      <c r="GV2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -1611,8 +1668,65 @@
       <c r="GC3">
         <v>11</v>
       </c>
+      <c r="GD3">
+        <v>10</v>
+      </c>
+      <c r="GE3">
+        <v>4</v>
+      </c>
+      <c r="GF3">
+        <v>2</v>
+      </c>
+      <c r="GG3">
+        <v>7</v>
+      </c>
+      <c r="GH3">
+        <v>13</v>
+      </c>
+      <c r="GI3">
+        <v>9</v>
+      </c>
+      <c r="GJ3">
+        <v>7</v>
+      </c>
+      <c r="GK3">
+        <v>10</v>
+      </c>
+      <c r="GL3">
+        <v>9</v>
+      </c>
+      <c r="GM3">
+        <v>8</v>
+      </c>
+      <c r="GN3">
+        <v>22</v>
+      </c>
+      <c r="GO3">
+        <v>25</v>
+      </c>
+      <c r="GP3">
+        <v>18</v>
+      </c>
+      <c r="GQ3">
+        <v>20</v>
+      </c>
+      <c r="GR3">
+        <v>0</v>
+      </c>
+      <c r="GS3">
+        <v>11</v>
+      </c>
+      <c r="GT3">
+        <v>8</v>
+      </c>
+      <c r="GU3">
+        <v>3</v>
+      </c>
+      <c r="GV3">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -2168,8 +2282,65 @@
       <c r="GC4">
         <v>12</v>
       </c>
+      <c r="GD4">
+        <v>19</v>
+      </c>
+      <c r="GE4">
+        <v>9</v>
+      </c>
+      <c r="GF4">
+        <v>11</v>
+      </c>
+      <c r="GG4">
+        <v>15</v>
+      </c>
+      <c r="GH4">
+        <v>15</v>
+      </c>
+      <c r="GI4">
+        <v>16</v>
+      </c>
+      <c r="GJ4">
+        <v>8</v>
+      </c>
+      <c r="GK4">
+        <v>11</v>
+      </c>
+      <c r="GL4">
+        <v>14</v>
+      </c>
+      <c r="GM4">
+        <v>24</v>
+      </c>
+      <c r="GN4">
+        <v>24</v>
+      </c>
+      <c r="GO4">
+        <v>33</v>
+      </c>
+      <c r="GP4">
+        <v>10</v>
+      </c>
+      <c r="GQ4">
+        <v>26</v>
+      </c>
+      <c r="GR4">
+        <v>22</v>
+      </c>
+      <c r="GS4">
+        <v>14</v>
+      </c>
+      <c r="GT4">
+        <v>16</v>
+      </c>
+      <c r="GU4">
+        <v>8</v>
+      </c>
+      <c r="GV4">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -2725,8 +2896,65 @@
       <c r="GC5">
         <v>14</v>
       </c>
+      <c r="GD5">
+        <v>25</v>
+      </c>
+      <c r="GE5">
+        <v>13</v>
+      </c>
+      <c r="GF5">
+        <v>16</v>
+      </c>
+      <c r="GG5">
+        <v>13</v>
+      </c>
+      <c r="GH5">
+        <v>23</v>
+      </c>
+      <c r="GI5">
+        <v>28</v>
+      </c>
+      <c r="GJ5">
+        <v>20</v>
+      </c>
+      <c r="GK5">
+        <v>13</v>
+      </c>
+      <c r="GL5">
+        <v>18</v>
+      </c>
+      <c r="GM5">
+        <v>25</v>
+      </c>
+      <c r="GN5">
+        <v>25</v>
+      </c>
+      <c r="GO5">
+        <v>34</v>
+      </c>
+      <c r="GP5">
+        <v>20</v>
+      </c>
+      <c r="GQ5">
+        <v>27</v>
+      </c>
+      <c r="GR5">
+        <v>23</v>
+      </c>
+      <c r="GS5">
+        <v>23</v>
+      </c>
+      <c r="GT5">
+        <v>26</v>
+      </c>
+      <c r="GU5">
+        <v>11</v>
+      </c>
+      <c r="GV5">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>14</v>
       </c>
@@ -3282,8 +3510,65 @@
       <c r="GC6">
         <v>15</v>
       </c>
+      <c r="GD6">
+        <v>33</v>
+      </c>
+      <c r="GE6">
+        <v>26</v>
+      </c>
+      <c r="GF6">
+        <v>17</v>
+      </c>
+      <c r="GG6">
+        <v>31</v>
+      </c>
+      <c r="GH6">
+        <v>28</v>
+      </c>
+      <c r="GI6">
+        <v>29</v>
+      </c>
+      <c r="GJ6">
+        <v>21</v>
+      </c>
+      <c r="GK6">
+        <v>32</v>
+      </c>
+      <c r="GL6">
+        <v>30</v>
+      </c>
+      <c r="GM6">
+        <v>33</v>
+      </c>
+      <c r="GN6">
+        <v>27</v>
+      </c>
+      <c r="GO6">
+        <v>35</v>
+      </c>
+      <c r="GP6">
+        <v>22</v>
+      </c>
+      <c r="GQ6">
+        <v>29</v>
+      </c>
+      <c r="GR6">
+        <v>33</v>
+      </c>
+      <c r="GS6">
+        <v>29</v>
+      </c>
+      <c r="GT6">
+        <v>29</v>
+      </c>
+      <c r="GU6">
+        <v>24</v>
+      </c>
+      <c r="GV6">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -3839,11 +4124,68 @@
       <c r="GC7">
         <v>29</v>
       </c>
+      <c r="GD7">
+        <v>34</v>
+      </c>
+      <c r="GE7">
+        <v>34</v>
+      </c>
+      <c r="GF7">
+        <v>22</v>
+      </c>
+      <c r="GG7">
+        <v>34</v>
+      </c>
+      <c r="GH7">
+        <v>20</v>
+      </c>
+      <c r="GI7">
+        <v>23</v>
+      </c>
+      <c r="GJ7">
+        <v>22</v>
+      </c>
+      <c r="GK7">
+        <v>35</v>
+      </c>
+      <c r="GL7">
+        <v>33</v>
+      </c>
+      <c r="GM7">
+        <v>34</v>
+      </c>
+      <c r="GN7">
+        <v>36</v>
+      </c>
+      <c r="GO7">
+        <v>36</v>
+      </c>
+      <c r="GP7">
+        <v>30</v>
+      </c>
+      <c r="GQ7">
+        <v>30</v>
+      </c>
+      <c r="GR7">
+        <v>36</v>
+      </c>
+      <c r="GS7">
+        <v>32</v>
+      </c>
+      <c r="GT7">
+        <v>35</v>
+      </c>
+      <c r="GU7">
+        <v>36</v>
+      </c>
+      <c r="GV7">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:204" x14ac:dyDescent="0.25">
       <c r="AG8" s="3"/>
     </row>
-    <row r="10" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:204" x14ac:dyDescent="0.25">
       <c r="CI10" s="5"/>
     </row>
   </sheetData>

--- a/historicoquiniela3meses.xlsx
+++ b/historicoquiniela3meses.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE6816B-FFEA-4BA8-93EB-2E261DE4E0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AF291E-5A44-4EF0-868F-904B19C35244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GV10"/>
+  <dimension ref="A1:HH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="GT2" sqref="GT2:GV7"/>
+    <sheetView tabSelected="1" topLeftCell="GA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="HG2" sqref="HG2:HH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:204" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:216" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
     </row>
-    <row r="2" spans="1:204" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:216" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -1111,8 +1111,44 @@
       <c r="GV2">
         <v>7</v>
       </c>
+      <c r="GW2">
+        <v>12</v>
+      </c>
+      <c r="GX2">
+        <v>7</v>
+      </c>
+      <c r="GY2">
+        <v>0</v>
+      </c>
+      <c r="GZ2">
+        <v>2</v>
+      </c>
+      <c r="HA2">
+        <v>0</v>
+      </c>
+      <c r="HB2">
+        <v>10</v>
+      </c>
+      <c r="HC2">
+        <v>3</v>
+      </c>
+      <c r="HD2">
+        <v>10</v>
+      </c>
+      <c r="HE2">
+        <v>12</v>
+      </c>
+      <c r="HF2">
+        <v>4</v>
+      </c>
+      <c r="HG2">
+        <v>0</v>
+      </c>
+      <c r="HH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:204" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:216" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -1725,8 +1761,44 @@
       <c r="GV3">
         <v>17</v>
       </c>
+      <c r="GW3">
+        <v>20</v>
+      </c>
+      <c r="GX3">
+        <v>20</v>
+      </c>
+      <c r="GY3">
+        <v>12</v>
+      </c>
+      <c r="GZ3">
+        <v>5</v>
+      </c>
+      <c r="HA3">
+        <v>0</v>
+      </c>
+      <c r="HB3">
+        <v>17</v>
+      </c>
+      <c r="HC3">
+        <v>6</v>
+      </c>
+      <c r="HD3">
+        <v>15</v>
+      </c>
+      <c r="HE3">
+        <v>13</v>
+      </c>
+      <c r="HF3">
+        <v>10</v>
+      </c>
+      <c r="HG3">
+        <v>18</v>
+      </c>
+      <c r="HH3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:204" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:216" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -2339,8 +2411,44 @@
       <c r="GV4">
         <v>23</v>
       </c>
+      <c r="GW4">
+        <v>23</v>
+      </c>
+      <c r="GX4">
+        <v>24</v>
+      </c>
+      <c r="GY4">
+        <v>15</v>
+      </c>
+      <c r="GZ4">
+        <v>6</v>
+      </c>
+      <c r="HA4">
+        <v>2</v>
+      </c>
+      <c r="HB4">
+        <v>24</v>
+      </c>
+      <c r="HC4">
+        <v>8</v>
+      </c>
+      <c r="HD4">
+        <v>17</v>
+      </c>
+      <c r="HE4">
+        <v>15</v>
+      </c>
+      <c r="HF4">
+        <v>19</v>
+      </c>
+      <c r="HG4">
+        <v>27</v>
+      </c>
+      <c r="HH4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:204" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:216" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -2953,8 +3061,44 @@
       <c r="GV5">
         <v>28</v>
       </c>
+      <c r="GW5">
+        <v>29</v>
+      </c>
+      <c r="GX5">
+        <v>29</v>
+      </c>
+      <c r="GY5">
+        <v>21</v>
+      </c>
+      <c r="GZ5">
+        <v>8</v>
+      </c>
+      <c r="HA5">
+        <v>5</v>
+      </c>
+      <c r="HB5">
+        <v>25</v>
+      </c>
+      <c r="HC5">
+        <v>16</v>
+      </c>
+      <c r="HD5">
+        <v>22</v>
+      </c>
+      <c r="HE5">
+        <v>23</v>
+      </c>
+      <c r="HF5">
+        <v>25</v>
+      </c>
+      <c r="HG5">
+        <v>28</v>
+      </c>
+      <c r="HH5">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:204" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:216" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>14</v>
       </c>
@@ -3567,8 +3711,44 @@
       <c r="GV6">
         <v>31</v>
       </c>
+      <c r="GW6">
+        <v>31</v>
+      </c>
+      <c r="GX6">
+        <v>31</v>
+      </c>
+      <c r="GY6">
+        <v>28</v>
+      </c>
+      <c r="GZ6">
+        <v>9</v>
+      </c>
+      <c r="HA6">
+        <v>7</v>
+      </c>
+      <c r="HB6">
+        <v>27</v>
+      </c>
+      <c r="HC6">
+        <v>27</v>
+      </c>
+      <c r="HD6">
+        <v>27</v>
+      </c>
+      <c r="HE6">
+        <v>28</v>
+      </c>
+      <c r="HF6">
+        <v>33</v>
+      </c>
+      <c r="HG6">
+        <v>32</v>
+      </c>
+      <c r="HH6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:204" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:216" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -4181,11 +4361,47 @@
       <c r="GV7">
         <v>35</v>
       </c>
+      <c r="GW7">
+        <v>35</v>
+      </c>
+      <c r="GX7">
+        <v>36</v>
+      </c>
+      <c r="GY7">
+        <v>34</v>
+      </c>
+      <c r="GZ7">
+        <v>24</v>
+      </c>
+      <c r="HA7">
+        <v>27</v>
+      </c>
+      <c r="HB7">
+        <v>30</v>
+      </c>
+      <c r="HC7">
+        <v>30</v>
+      </c>
+      <c r="HD7">
+        <v>36</v>
+      </c>
+      <c r="HE7">
+        <v>20</v>
+      </c>
+      <c r="HF7">
+        <v>34</v>
+      </c>
+      <c r="HG7">
+        <v>34</v>
+      </c>
+      <c r="HH7">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:204" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:216" x14ac:dyDescent="0.25">
       <c r="AG8" s="3"/>
     </row>
-    <row r="10" spans="1:204" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:216" x14ac:dyDescent="0.25">
       <c r="CI10" s="5"/>
     </row>
   </sheetData>
